--- a/Leçon chimie/LC 11/LC 11Expériences.xlsx
+++ b/Leçon chimie/LC 11/LC 11Expériences.xlsx
@@ -28,9 +28,6 @@
     <t>données sur les composés chimiques</t>
   </si>
   <si>
-    <t>∆titrage =0 car rupture brutale</t>
-  </si>
-  <si>
     <t>Incertitude sur le volume éq</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Titrage conductimétrique  des ions (Na+,Cl-) dans un sérum physiologique</t>
+  </si>
+  <si>
+    <t>∆ titrage (L)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD942AC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,28 +276,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -305,46 +290,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +680,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -691,172 +692,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25">
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.1</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6" s="22">
-        <f>G12</f>
-        <v>1.2747548783981962E-4</v>
+      <c r="D6" s="26">
+        <f>G13</f>
+        <v>2.2638462845343542E-4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="44" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>18</v>
+      <c r="A8" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="F8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10">
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6">
         <f>0.00005/2</f>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.01</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6">
         <f>0.00005</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="27">
         <f>C5*C6/C10</f>
         <v>0.15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="27">
         <f>C11*SQRT((D6/C6)^2+(D5/C5)^2+(D10/C10)^2)</f>
-        <v>1.3095800853708793E-3</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10">
+        <v>2.2836374493338473E-3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="30">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="27">
         <f>C17*C11</f>
         <v>8.766</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <f>C12*D11/C11</f>
-        <v>7.6531860189074194E-2</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="6">
-        <f>SQRT(G9^2+(G9+G10+G11)^2)</f>
-        <v>1.2747548783981962E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" t="s">
+        <v>0.13345577253907004</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="F13" s="29" t="s">
         <v>2</v>
       </c>
+      <c r="G13" s="30">
+        <f>SQRT(G9^2+(G9+G10+G11+G12)^2)</f>
+        <v>2.2638462845343542E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="31"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="3" t="s">
@@ -870,14 +874,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
